--- a/data/saas_corp.xlsx
+++ b/data/saas_corp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rockwellautomation-my.sharepoint.com/personal/curtis_stallings_rockwellautomation_com/Documents/Documents/py_files/arr_data_professional/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="8_{BA491641-87EE-4A70-BD7A-8542D530137E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF01C9CF-7401-491B-BE51-010BBB714028}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="8_{BA491641-87EE-4A70-BD7A-8542D530137E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B04D35B-B78C-4E91-9537-7F37F76D4815}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{935819C8-9422-4286-9648-775B9C1C4580}"/>
+    <workbookView xWindow="8064" yWindow="1380" windowWidth="21624" windowHeight="11244" activeTab="1" xr2:uid="{935819C8-9422-4286-9648-775B9C1C4580}"/>
   </bookViews>
   <sheets>
     <sheet name="customer" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="161">
   <si>
     <t>Yotz</t>
   </si>
@@ -502,6 +502,24 @@
   </si>
   <si>
     <t>Issue Tracking System</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>Learning and Training</t>
+  </si>
+  <si>
+    <t>Business Operations and Management</t>
+  </si>
+  <si>
+    <t>IT and Development</t>
+  </si>
+  <si>
+    <t>Content and Document Management</t>
+  </si>
+  <si>
+    <t>Analytics and Intelligence</t>
   </si>
 </sst>
 </file>
@@ -879,9 +897,9 @@
       <selection activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>125</v>
       </c>
@@ -889,7 +907,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -897,7 +915,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -905,7 +923,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -913,7 +931,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -921,7 +939,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -929,7 +947,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -937,7 +955,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -945,7 +963,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -953,7 +971,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -961,7 +979,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -969,7 +987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -977,7 +995,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -985,7 +1003,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -993,7 +1011,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1001,7 +1019,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1009,7 +1027,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1017,7 +1035,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1025,7 +1043,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1033,7 +1051,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1041,7 +1059,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1049,7 +1067,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1057,7 +1075,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1065,7 +1083,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1073,7 +1091,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1081,7 +1099,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1089,7 +1107,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1097,7 +1115,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1105,7 +1123,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1113,7 +1131,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1121,7 +1139,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1129,7 +1147,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1137,7 +1155,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1145,7 +1163,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1153,7 +1171,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1161,7 +1179,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1169,7 +1187,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1177,7 +1195,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1185,7 +1203,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1193,7 +1211,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1201,7 +1219,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1209,7 +1227,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1217,7 +1235,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1225,7 +1243,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1233,7 +1251,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1241,7 +1259,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1249,7 +1267,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1257,7 +1275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1265,7 +1283,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1273,7 +1291,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1281,7 +1299,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1289,7 +1307,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1297,7 +1315,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1305,7 +1323,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1313,7 +1331,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1321,7 +1339,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1329,7 +1347,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1337,7 +1355,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1345,7 +1363,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1353,7 +1371,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1361,7 +1379,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1369,7 +1387,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1377,7 +1395,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1385,7 +1403,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1393,7 +1411,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1401,7 +1419,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1409,7 +1427,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1417,7 +1435,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1425,7 +1443,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1433,7 +1451,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1441,7 +1459,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1449,7 +1467,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1457,7 +1475,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1465,7 +1483,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1473,7 +1491,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1481,7 +1499,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1489,7 +1507,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1497,7 +1515,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1505,7 +1523,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1513,7 +1531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1521,7 +1539,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1529,7 +1547,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1537,7 +1555,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -1545,7 +1563,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -1553,7 +1571,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -1561,7 +1579,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -1569,7 +1587,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -1577,7 +1595,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -1585,7 +1603,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -1593,7 +1611,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -1601,7 +1619,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -1609,7 +1627,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -1617,7 +1635,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -1625,7 +1643,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -1633,7 +1651,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -1641,7 +1659,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -1649,7 +1667,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -1657,7 +1675,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -1665,7 +1683,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -1673,7 +1691,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -1681,7 +1699,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -1689,7 +1707,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -1697,7 +1715,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -1705,7 +1723,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -1713,7 +1731,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -1721,7 +1739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -1729,7 +1747,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -1737,7 +1755,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -1745,7 +1763,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -1753,7 +1771,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -1761,7 +1779,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -1769,7 +1787,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -1777,7 +1795,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -1785,7 +1803,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -1793,7 +1811,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -1801,7 +1819,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -1809,7 +1827,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -1817,7 +1835,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -1825,7 +1843,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -1833,7 +1851,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -1841,7 +1859,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -1849,7 +1867,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -1857,7 +1875,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -1865,7 +1883,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -1873,7 +1891,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -1881,7 +1899,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -1889,7 +1907,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -1897,7 +1915,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -1905,7 +1923,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -1913,7 +1931,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -1921,7 +1939,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -1929,7 +1947,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -1937,7 +1955,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -1945,7 +1963,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -1953,7 +1971,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -1961,7 +1979,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -1969,7 +1987,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -1977,7 +1995,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -1985,7 +2003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -1993,7 +2011,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -2001,7 +2019,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -2009,7 +2027,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -2017,7 +2035,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -2025,7 +2043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -2033,7 +2051,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -2041,7 +2059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -2049,7 +2067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -2057,7 +2075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -2065,7 +2083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -2073,7 +2091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -2081,7 +2099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -2096,20 +2114,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7E2124-3C05-4CE7-B030-C25867343D20}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>125</v>
       </c>
@@ -2120,10 +2139,13 @@
         <v>149</v>
       </c>
       <c r="D1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2133,11 +2155,14 @@
       <c r="C2" t="s">
         <v>141</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2">
         <v>100000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2147,11 +2172,14 @@
       <c r="C3" t="s">
         <v>140</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3">
         <v>250000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2161,11 +2189,14 @@
       <c r="C4" t="s">
         <v>154</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4">
         <v>85000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2175,11 +2206,14 @@
       <c r="C5" t="s">
         <v>138</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5">
         <v>50000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2189,11 +2223,14 @@
       <c r="C6" t="s">
         <v>136</v>
       </c>
-      <c r="D6">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2203,11 +2240,14 @@
       <c r="C7" t="s">
         <v>145</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7">
         <v>120000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2217,11 +2257,14 @@
       <c r="C8" t="s">
         <v>146</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8">
         <v>75000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2231,11 +2274,14 @@
       <c r="C9" t="s">
         <v>137</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9">
         <v>130000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2245,11 +2291,14 @@
       <c r="C10" t="s">
         <v>139</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10">
         <v>100000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2259,11 +2308,14 @@
       <c r="C11" t="s">
         <v>135</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11">
         <v>60000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2273,11 +2325,14 @@
       <c r="C12" t="s">
         <v>143</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12">
         <v>50000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2287,11 +2342,14 @@
       <c r="C13" t="s">
         <v>148</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13">
         <v>65000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2301,7 +2359,10 @@
       <c r="C14" t="s">
         <v>152</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14">
         <v>130000</v>
       </c>
     </row>

--- a/data/saas_corp.xlsx
+++ b/data/saas_corp.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rockwellautomation-my.sharepoint.com/personal/curtis_stallings_rockwellautomation_com/Documents/Documents/py_files/arr_data_professional/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="8_{BA491641-87EE-4A70-BD7A-8542D530137E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B04D35B-B78C-4E91-9537-7F37F76D4815}"/>
+  <xr:revisionPtr revIDLastSave="135" documentId="8_{BA491641-87EE-4A70-BD7A-8542D530137E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF4B8C3F-5D1E-490A-B23A-D56CE1A4DD74}"/>
   <bookViews>
-    <workbookView xWindow="8064" yWindow="1380" windowWidth="21624" windowHeight="11244" activeTab="1" xr2:uid="{935819C8-9422-4286-9648-775B9C1C4580}"/>
+    <workbookView xWindow="2136" yWindow="2928" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{935819C8-9422-4286-9648-775B9C1C4580}"/>
   </bookViews>
   <sheets>
     <sheet name="customer" sheetId="1" r:id="rId1"/>
     <sheet name="product" sheetId="2" r:id="rId2"/>
+    <sheet name="contract" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="172">
   <si>
     <t>Yotz</t>
   </si>
@@ -520,6 +521,39 @@
   </si>
   <si>
     <t>Analytics and Intelligence</t>
+  </si>
+  <si>
+    <t>contract_id</t>
+  </si>
+  <si>
+    <t>contract_amount</t>
+  </si>
+  <si>
+    <t>contract_header_start</t>
+  </si>
+  <si>
+    <t>contract_header_end</t>
+  </si>
+  <si>
+    <t>contract_line_amount</t>
+  </si>
+  <si>
+    <t>contract_line_start</t>
+  </si>
+  <si>
+    <t>contract_booking</t>
+  </si>
+  <si>
+    <t>contract_line_end</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>renewable</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
 </sst>
 </file>
@@ -555,8 +589,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2116,8 +2152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7E2124-3C05-4CE7-B030-C25867343D20}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2369,4 +2405,136 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8751B2D-3FB0-4E27-9443-3F7BC207C08F}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>100000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>45292</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45657</v>
+      </c>
+      <c r="F2" s="1">
+        <v>45292</v>
+      </c>
+      <c r="G2" s="2">
+        <v>50000</v>
+      </c>
+      <c r="H2" s="1">
+        <v>45292</v>
+      </c>
+      <c r="I2" s="1">
+        <v>45657</v>
+      </c>
+      <c r="J2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>100000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>45292</v>
+      </c>
+      <c r="E3" s="1">
+        <v>45657</v>
+      </c>
+      <c r="F3" s="1">
+        <v>45292</v>
+      </c>
+      <c r="G3" s="2">
+        <v>50000</v>
+      </c>
+      <c r="H3" s="1">
+        <v>45292</v>
+      </c>
+      <c r="I3" s="1">
+        <v>45657</v>
+      </c>
+      <c r="J3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/saas_corp.xlsx
+++ b/data/saas_corp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rockwellautomation-my.sharepoint.com/personal/curtis_stallings_rockwellautomation_com/Documents/Documents/py_files/arr_data_professional/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="135" documentId="8_{BA491641-87EE-4A70-BD7A-8542D530137E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF4B8C3F-5D1E-490A-B23A-D56CE1A4DD74}"/>
+  <xr:revisionPtr revIDLastSave="173" documentId="8_{BA491641-87EE-4A70-BD7A-8542D530137E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F158F3CF-0F5C-4F62-B73A-893EB1E87A49}"/>
   <bookViews>
-    <workbookView xWindow="2136" yWindow="2928" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{935819C8-9422-4286-9648-775B9C1C4580}"/>
+    <workbookView xWindow="-23148" yWindow="14412" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{935819C8-9422-4286-9648-775B9C1C4580}"/>
   </bookViews>
   <sheets>
     <sheet name="customer" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="172">
   <si>
     <t>Yotz</t>
   </si>
@@ -523,37 +523,37 @@
     <t>Analytics and Intelligence</t>
   </si>
   <si>
-    <t>contract_id</t>
-  </si>
-  <si>
-    <t>contract_amount</t>
-  </si>
-  <si>
-    <t>contract_header_start</t>
-  </si>
-  <si>
-    <t>contract_header_end</t>
-  </si>
-  <si>
-    <t>contract_line_amount</t>
-  </si>
-  <si>
-    <t>contract_line_start</t>
-  </si>
-  <si>
-    <t>contract_booking</t>
-  </si>
-  <si>
-    <t>contract_line_end</t>
-  </si>
-  <si>
-    <t>item</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>header.amount</t>
+  </si>
+  <si>
+    <t>header.start_date</t>
+  </si>
+  <si>
+    <t>header.end_date</t>
+  </si>
+  <si>
+    <t>header.booking_date</t>
+  </si>
+  <si>
+    <t>line.amount</t>
+  </si>
+  <si>
+    <t>line.start_date</t>
+  </si>
+  <si>
+    <t>line.end_date</t>
+  </si>
+  <si>
+    <t>line.product</t>
+  </si>
+  <si>
+    <t>line.renewable</t>
   </si>
   <si>
     <t>renewable</t>
-  </si>
-  <si>
-    <t>T</t>
   </si>
 </sst>
 </file>
@@ -933,9 +933,9 @@
       <selection activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>125</v>
       </c>
@@ -943,7 +943,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -951,7 +951,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -959,7 +959,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -967,7 +967,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -975,7 +975,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -983,7 +983,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -991,7 +991,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -999,7 +999,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -2150,21 +2150,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7E2124-3C05-4CE7-B030-C25867343D20}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5546875" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>125</v>
       </c>
@@ -2180,8 +2180,11 @@
       <c r="E1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2195,10 +2198,13 @@
         <v>157</v>
       </c>
       <c r="E2">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10000</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2212,10 +2218,13 @@
         <v>157</v>
       </c>
       <c r="E3">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>25000</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2229,10 +2238,13 @@
         <v>158</v>
       </c>
       <c r="E4">
-        <v>85000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8500</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2246,10 +2258,13 @@
         <v>159</v>
       </c>
       <c r="E5">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5000</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2263,10 +2278,13 @@
         <v>160</v>
       </c>
       <c r="E6">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10000</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2280,10 +2298,13 @@
         <v>157</v>
       </c>
       <c r="E7">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12000</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2297,10 +2318,13 @@
         <v>158</v>
       </c>
       <c r="E8">
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7500</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2314,10 +2338,13 @@
         <v>156</v>
       </c>
       <c r="E9">
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>13000</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2331,10 +2358,13 @@
         <v>158</v>
       </c>
       <c r="E10">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10000</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2348,10 +2378,13 @@
         <v>158</v>
       </c>
       <c r="E11">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6000</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2365,10 +2398,13 @@
         <v>159</v>
       </c>
       <c r="E12">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5000</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2382,10 +2418,13 @@
         <v>157</v>
       </c>
       <c r="E13">
-        <v>65000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6500</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2399,7 +2438,10 @@
         <v>157</v>
       </c>
       <c r="E14">
-        <v>130000</v>
+        <v>13000</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2411,30 +2453,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8751B2D-3FB0-4E27-9443-3F7BC207C08F}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" t="s">
         <v>124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>161</v>
       </c>
       <c r="C1" t="s">
         <v>162</v>
@@ -2446,13 +2488,13 @@
         <v>164</v>
       </c>
       <c r="F1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" t="s">
         <v>167</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H1" t="s">
-        <v>166</v>
       </c>
       <c r="I1" t="s">
         <v>168</v>
@@ -2464,12 +2506,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>110</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
       </c>
       <c r="C2">
         <v>100000</v>
@@ -2495,16 +2537,16 @@
       <c r="J2" t="s">
         <v>129</v>
       </c>
-      <c r="K2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>110</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
       </c>
       <c r="C3">
         <v>100000</v>
@@ -2530,8 +2572,8 @@
       <c r="J3" t="s">
         <v>142</v>
       </c>
-      <c r="K3" t="s">
-        <v>171</v>
+      <c r="K3" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/saas_corp.xlsx
+++ b/data/saas_corp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rockwellautomation-my.sharepoint.com/personal/curtis_stallings_rockwellautomation_com/Documents/Documents/py_files/arr_data_professional/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="173" documentId="8_{BA491641-87EE-4A70-BD7A-8542D530137E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F158F3CF-0F5C-4F62-B73A-893EB1E87A49}"/>
+  <xr:revisionPtr revIDLastSave="174" documentId="8_{BA491641-87EE-4A70-BD7A-8542D530137E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61FCECEA-F27C-496B-8E3B-CF61BD5D5A6F}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="14412" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{935819C8-9422-4286-9648-775B9C1C4580}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{935819C8-9422-4286-9648-775B9C1C4580}"/>
   </bookViews>
   <sheets>
     <sheet name="customer" sheetId="1" r:id="rId1"/>
@@ -933,9 +933,9 @@
       <selection activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>125</v>
       </c>
@@ -943,7 +943,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -951,7 +951,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -959,7 +959,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -967,7 +967,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -975,7 +975,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -983,7 +983,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -991,7 +991,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -999,7 +999,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -2152,19 +2152,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7E2124-3C05-4CE7-B030-C25867343D20}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>125</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2453,25 +2453,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8751B2D-3FB0-4E27-9443-3F7BC207C08F}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" activeCellId="4" sqref="D1:D1048576 E1:E1048576 F1:F1048576 H1:H1048576 I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>161</v>
       </c>
@@ -2481,22 +2481,22 @@
       <c r="C1" t="s">
         <v>162</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>165</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>168</v>
       </c>
       <c r="J1" t="s">
@@ -2506,7 +2506,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
